--- a/Project Activity Tracker.xlsx
+++ b/Project Activity Tracker.xlsx
@@ -5,28 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub projects\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5771B4B-8F7C-4B0C-A9D5-A0EFB112AA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8FF064-8EBB-4534-8024-1DF64BEDCD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{03F8EDA5-D66D-4D97-9586-100DD2D71474}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{03F8EDA5-D66D-4D97-9586-100DD2D71474}"/>
   </bookViews>
   <sheets>
-    <sheet name="Picture" sheetId="11" r:id="rId1"/>
-    <sheet name="Tasks" sheetId="1" r:id="rId2"/>
-    <sheet name="Budget Plan" sheetId="3" r:id="rId3"/>
-    <sheet name="list" sheetId="13" r:id="rId4"/>
-    <sheet name="DashBoard" sheetId="12" r:id="rId5"/>
-    <sheet name="Issues" sheetId="2" r:id="rId6"/>
-    <sheet name="SpeedoMeters" sheetId="10" r:id="rId7"/>
+    <sheet name="Tasks" sheetId="1" r:id="rId1"/>
+    <sheet name="Budget Plan" sheetId="3" r:id="rId2"/>
+    <sheet name="list" sheetId="13" r:id="rId3"/>
+    <sheet name="DashBoard" sheetId="12" r:id="rId4"/>
+    <sheet name="Issues" sheetId="2" r:id="rId5"/>
+    <sheet name="SpeedoMeters" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DashBoard!$I$30:$M$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Issues!$A$3:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DashBoard!$I$30:$M$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Issues!$A$3:$K$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -496,7 +494,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="00000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,11 +618,6 @@
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -1153,12 +1146,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1180,6 +1167,12 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1193,76 +1186,6 @@
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor rgb="FF463E2A"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFA78159"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFA78159"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor rgb="FF463E2A"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFA78159"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFA78159"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1432,6 +1355,72 @@
         <top style="thin">
           <color rgb="FFA78159"/>
         </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFA78159"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF463E2A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor rgb="FF463E2A"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFA78159"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA78159"/>
+        </right>
+        <top/>
         <bottom/>
       </border>
     </dxf>
@@ -1677,6 +1666,51 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFA78159"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor rgb="FF463E2A"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFA78159"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA78159"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1693,26 +1727,63 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF463E2A"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FFA78159"/>
-        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FFA78159"/>
-        </left>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1793,94 +1864,16 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium24 2" pivot="0" count="7" xr9:uid="{577DF741-8FEC-4ED8-A7A1-A67A396E76E7}">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="totalRow" dxfId="22"/>
-      <tableStyleElement type="firstColumn" dxfId="21"/>
-      <tableStyleElement type="lastColumn" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="31"/>
+      <tableStyleElement type="headerRow" dxfId="30"/>
+      <tableStyleElement type="totalRow" dxfId="29"/>
+      <tableStyleElement type="firstColumn" dxfId="28"/>
+      <tableStyleElement type="lastColumn" dxfId="27"/>
+      <tableStyleElement type="firstRowStripe" dxfId="26"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="25"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2296,7 +2289,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5B7FF20-70AA-4C90-96C3-3325E0AE1BA1}" type="CELLRANGE">
+                    <a:fld id="{027E894B-7A33-4322-B636-EC883073C729}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2329,7 +2322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80B33AD4-8398-47D7-805C-BA2D491159CF}" type="CELLRANGE">
+                    <a:fld id="{084D3874-858F-4389-90EA-24CA5D5DA7A3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2362,7 +2355,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4FC79820-BC00-44E4-9DA9-E3C6141D5120}" type="CELLRANGE">
+                    <a:fld id="{5741B29D-A3CA-4F7A-8D06-8A13ABAA8A4C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2395,7 +2388,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8633772-3709-4006-9852-EA5946BE3CCD}" type="CELLRANGE">
+                    <a:fld id="{8DEDB51A-F52B-4B7E-9691-89C5BC895593}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2428,7 +2421,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA3C044D-1ABD-48E2-8F0A-C6194AC4EC9F}" type="CELLRANGE">
+                    <a:fld id="{3B0217E9-3C6F-4475-8344-18E33D8DF884}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2921,7 +2914,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{644786CE-6691-4C64-8B0B-561CF2265DF7}" type="CELLRANGE">
+                    <a:fld id="{CAAC638C-0AEC-4A75-A5F8-6B58154FE119}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2954,7 +2947,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5219E6E5-D08B-4B6B-B170-D12217A5C79A}" type="CELLRANGE">
+                    <a:fld id="{3A5AF03A-7DBB-4F42-86E9-D6A5AA47A9F9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2987,7 +2980,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{917F766A-37F2-43D3-83BF-941DE3894DE6}" type="CELLRANGE">
+                    <a:fld id="{31D12C95-3FC2-4B78-8689-B33CF1D9DC6F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3020,7 +3013,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD009C08-1DCE-4BF8-B8E1-6D57EB8BC453}" type="CELLRANGE">
+                    <a:fld id="{DD251CC4-5646-4BFE-9EB4-F175AF9ED28A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3053,7 +3046,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF54ED94-3316-408A-8BD1-9227CB0E3819}" type="CELLRANGE">
+                    <a:fld id="{78E1F320-6DD0-4E41-84D5-2E21AD20056A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3545,7 +3538,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CCB56462-4EB5-4B72-A6D0-52045EA37B5F}" type="CELLRANGE">
+                    <a:fld id="{41DA3DB9-9468-446D-94DE-AD340D0B9179}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3578,7 +3571,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9F0EF895-CC55-4FE4-9F22-B4F2B4EF4BA6}" type="CELLRANGE">
+                    <a:fld id="{3B55D264-60BA-4BCD-9DE1-29DAD868C0C9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3611,7 +3604,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D20D1729-9CB7-4062-ADA4-D8E0C721495D}" type="CELLRANGE">
+                    <a:fld id="{E35D1E9D-18A0-44B1-AADF-6CA7EA6743A4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3644,7 +3637,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC989A9B-3C60-4B2A-8A3F-3B5EA71FFE69}" type="CELLRANGE">
+                    <a:fld id="{37F65CB9-D2FF-492C-8F9E-A09DDAFB11D5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3677,7 +3670,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6452688-1C7B-497B-B8D6-82A590C02A09}" type="CELLRANGE">
+                    <a:fld id="{A70AADD0-10A7-4D84-B517-9407344B4319}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4830,7 +4823,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2CAE3334-357B-48F7-A3AF-D641561C91A9}" type="CELLRANGE">
+                    <a:fld id="{ABFF4DC1-D6B7-482C-83C1-52B2620E6F96}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4863,7 +4856,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2FCC03F-B362-4E94-BC2D-C7CA18E30C52}" type="CELLRANGE">
+                    <a:fld id="{DCE1A782-41B4-4962-87C6-C0A18B5F777A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4896,7 +4889,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D810928B-A33C-41D8-979B-3EDADBCA8204}" type="CELLRANGE">
+                    <a:fld id="{5F313B30-1B2F-4EB4-8D80-EEB56A60C137}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4929,7 +4922,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14AAF8EF-3194-45F5-9177-322C4902F30B}" type="CELLRANGE">
+                    <a:fld id="{B9F278C6-B4BC-4364-9A53-7DF9A8B9EFA3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4962,7 +4955,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ABDBBCA6-C6AE-434E-9AF9-E289D059AC69}" type="CELLRANGE">
+                    <a:fld id="{CD69F29B-6A26-4DAA-A036-FE4FC223E802}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5453,7 +5446,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA912B86-2BEF-4D5B-BB71-4043AF12B48C}" type="CELLRANGE">
+                    <a:fld id="{988B0F92-71F2-43B0-B208-8415250BEA24}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5486,7 +5479,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52872CFC-A1EC-49DA-886E-F72371669FD9}" type="CELLRANGE">
+                    <a:fld id="{2378518F-4835-4F2C-B8FC-AF62E0FA0D20}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5519,7 +5512,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{574944A3-20FF-437A-A97B-7B9BCD115684}" type="CELLRANGE">
+                    <a:fld id="{A882D707-D508-4D4D-A51A-2D694DAA290F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5552,7 +5545,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0EBC4BAC-82EC-4F2C-B3A8-C37CE460BEE7}" type="CELLRANGE">
+                    <a:fld id="{4CD36DA0-8405-41DB-9B7F-8F9583AC761D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5585,7 +5578,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71520628-3223-4D08-BFCC-DA542B9F2950}" type="CELLRANGE">
+                    <a:fld id="{D99EA91E-4CDF-40AC-BA50-8714998D9EA9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6076,7 +6069,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D84A2AA-3C27-4A60-987B-D64907BA0BC0}" type="CELLRANGE">
+                    <a:fld id="{83B95D29-88AC-4231-B618-EDA1A62A997E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6109,7 +6102,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7EF82A2E-BAB3-41C5-B0AE-050681C901B7}" type="CELLRANGE">
+                    <a:fld id="{081F3A45-EA6D-4464-B0E8-02FB16CD0EC4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6142,7 +6135,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC408326-3CCE-469E-BCF4-3D1712DB73F2}" type="CELLRANGE">
+                    <a:fld id="{F16139C8-D22C-49FE-9FA9-2625D839E685}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6175,7 +6168,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F249571C-3526-4C55-9FE6-1C3813E31B63}" type="CELLRANGE">
+                    <a:fld id="{41166968-FCE6-4EC3-B13C-7C6D441CC950}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6208,7 +6201,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{414F3098-5E46-4440-9D93-F307F6BCFA23}" type="CELLRANGE">
+                    <a:fld id="{3D74629A-41ED-4003-81C1-FCBA2F005A5A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7152,7 +7145,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25F6A221-1598-476E-BBDC-3ACE30909443}" type="CELLRANGE">
+                    <a:fld id="{9130DA76-B92F-47B8-A7F5-D90A96DE05C8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7185,7 +7178,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7802208-3BBC-420D-A864-3E1A5764869A}" type="CELLRANGE">
+                    <a:fld id="{914D0EAE-B84E-4A56-B0AD-840FFFC2466A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7218,7 +7211,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA4CC63D-3A69-48A7-8C13-40AD3031F191}" type="CELLRANGE">
+                    <a:fld id="{E29D34EB-4322-4E2D-9B36-3276BB36917C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7251,7 +7244,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C881738-C951-4DB0-B8E2-855289AD753F}" type="CELLRANGE">
+                    <a:fld id="{7EC45D09-6EE2-44D5-8373-332152B22FB8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7284,7 +7277,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E87B67DA-AD62-4D9A-8C02-BB87241B1563}" type="CELLRANGE">
+                    <a:fld id="{DA4D1F69-AFE3-44A4-A6B6-2C929A8A9286}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7317,7 +7310,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7760DAB-6293-4FA8-8269-E7003001D47B}" type="CELLRANGE">
+                    <a:fld id="{28AEFB72-F158-4DB3-A74B-9DB0749F14C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7350,7 +7343,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{600A10E3-72EC-425D-98A6-AF6CF5C6A7C6}" type="CELLRANGE">
+                    <a:fld id="{23886DF3-7F99-4D37-95B8-F642B6063481}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7383,7 +7376,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61E407F7-5E8A-47F3-85B9-29275B4B4146}" type="CELLRANGE">
+                    <a:fld id="{47BF5DA8-A985-4DD2-882E-0963EE44840F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7416,7 +7409,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FCFCBF12-25EC-4AE6-9304-6B20E92BA4DA}" type="CELLRANGE">
+                    <a:fld id="{224A831A-C124-4DE8-9696-8D588F20F5F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7449,7 +7442,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60C6FEB3-B18C-4947-AA54-EDC3CDC94DB4}" type="CELLRANGE">
+                    <a:fld id="{2C21BCAC-2A43-421C-8E93-92F8412A981D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7482,7 +7475,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9164739D-679D-4B2C-A4F0-4EB56CB211F1}" type="CELLRANGE">
+                    <a:fld id="{678A1F5E-D224-47F4-8FB0-E05D0AB6BF80}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7515,7 +7508,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{805F9BB2-918C-4056-B404-11D37E2F6B97}" type="CELLRANGE">
+                    <a:fld id="{6272115B-6CF4-4B95-B436-06E780D965D9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7548,7 +7541,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F3B2A2D-E407-493A-B0AC-8D7A125545B3}" type="CELLRANGE">
+                    <a:fld id="{9197CA0E-1386-4B0B-BBEF-CB189F2F646F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7581,7 +7574,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10C3DD3F-CC17-4357-9BF5-0681AB89CA01}" type="CELLRANGE">
+                    <a:fld id="{B10DFC30-7879-4989-A34E-F86C094B72EE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7614,7 +7607,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{723FBC3B-5E70-45A2-B487-ADD24109FA9D}" type="CELLRANGE">
+                    <a:fld id="{EBD05F4D-EE15-4AAD-BACD-C05396949658}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7647,7 +7640,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3300B9CE-8BBE-4B33-93EC-2885911D5601}" type="CELLRANGE">
+                    <a:fld id="{65B94385-40D6-4A2A-9F1F-46BDE7F22BA2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7680,7 +7673,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1511582B-7127-40F7-89D4-84C008210221}" type="CELLRANGE">
+                    <a:fld id="{A1187A67-EC93-43D4-9EBB-AB4C5FDA1A74}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7713,7 +7706,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE5E830C-CE7B-4472-87B7-AD4A041EA276}" type="CELLRANGE">
+                    <a:fld id="{F5E26F4A-5359-4E89-AD2F-B1B0D87C16B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7746,7 +7739,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8AE8D7BF-920E-4DC9-A9F0-A65281011F5E}" type="CELLRANGE">
+                    <a:fld id="{B40F8BDB-702E-41FA-A32C-57F8D562543A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7779,7 +7772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FBF43DA2-782B-40B6-9054-C416C1EF582B}" type="CELLRANGE">
+                    <a:fld id="{B30281C1-496D-49BA-8A29-BD43273C0833}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7812,7 +7805,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E46075A-9A97-427B-B485-7F3D741DBDEF}" type="CELLRANGE">
+                    <a:fld id="{CF718419-B426-4537-B2AA-DC1F0943A614}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15609,305 +15602,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>25880</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect b="1538"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="14046680" cy="5844540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.05376</cdr:x>
-      <cdr:y>0.75844</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.91039</cdr:x>
-      <cdr:y>0.8997</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7AF2B9-E596-C108-D3A6-4EEA940667DE}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="114300" y="1589303"/>
-          <a:ext cx="1821179" cy="296011"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:srgbClr val="463E2A"/>
-        </a:solidFill>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:noFill/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1">
-              <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>SCOPE</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.04607</cdr:x>
-      <cdr:y>0.76678</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>0.92961</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7AF2B9-E596-C108-D3A6-4EEA940667DE}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="72390" y="1653540"/>
-          <a:ext cx="1498836" cy="351123"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:srgbClr val="463E2A"/>
-        </a:solidFill>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:noFill/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1">
-              <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>SCHEDULE</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.03502</cdr:x>
-      <cdr:y>0.78476</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>0.92602</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7AF2B9-E596-C108-D3A6-4EEA940667DE}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="68580" y="1668393"/>
-          <a:ext cx="1889760" cy="300316"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:srgbClr val="463E2A"/>
-        </a:solidFill>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:noFill/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1">
-              <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>COST</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.21012</cdr:x>
-      <cdr:y>0.59857</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.76654</cdr:x>
-      <cdr:y>0.74194</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD571DE-A245-D59C-803C-490961525C73}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="411480" y="1272540"/>
-          <a:ext cx="1089660" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -16047,7 +15741,187 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04607</cdr:x>
+      <cdr:y>0.76678</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.92961</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7AF2B9-E596-C108-D3A6-4EEA940667DE}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="72390" y="1653540"/>
+          <a:ext cx="1498836" cy="351123"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="463E2A"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1">
+              <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SCHEDULE</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03502</cdr:x>
+      <cdr:y>0.78476</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.92602</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7AF2B9-E596-C108-D3A6-4EEA940667DE}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="68580" y="1668393"/>
+          <a:ext cx="1889760" cy="300316"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="463E2A"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1">
+              <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>COST</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.21012</cdr:x>
+      <cdr:y>0.59857</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.76654</cdr:x>
+      <cdr:y>0.74194</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD571DE-A245-D59C-803C-490961525C73}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="411480" y="1272540"/>
+          <a:ext cx="1089660" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16103,7 +15977,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F970CF-23CE-30D2-FD28-BA4BA20B56BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16124,7 +15998,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -16144,7 +16018,7 @@
         <xdr:cNvPr id="40" name="Group 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCD2C69-BCA8-B149-0850-467500655076}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16222,10 +16096,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="6307667" y="465667"/>
-            <a:ext cx="4419599" cy="2463800"/>
+            <a:off x="6307666" y="465667"/>
+            <a:ext cx="4419602" cy="2463800"/>
             <a:chOff x="5227316" y="243840"/>
-            <a:chExt cx="3924303" cy="2979780"/>
+            <a:chExt cx="3924306" cy="2979780"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -16244,9 +16118,9 @@
               <xdr:grpSpPr>
                 <a:xfrm>
                   <a:off x="5280658" y="243840"/>
-                  <a:ext cx="3870961" cy="441960"/>
+                  <a:ext cx="3870964" cy="441959"/>
                   <a:chOff x="5669195" y="403860"/>
-                  <a:chExt cx="2672910" cy="441960"/>
+                  <a:chExt cx="2672912" cy="441959"/>
                 </a:xfrm>
               </xdr:grpSpPr>
               <xdr:sp macro="" textlink="">
@@ -16303,8 +16177,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr bwMode="auto">
                   <a:xfrm>
-                    <a:off x="7656305" y="403860"/>
-                    <a:ext cx="685800" cy="441960"/>
+                    <a:off x="7656307" y="403860"/>
+                    <a:ext cx="685800" cy="441959"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
@@ -17432,15 +17306,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>481752</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>79587</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>21166</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>92286</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17499,15 +17373,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>557106</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>82126</xdr:rowOff>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>816186</xdr:colOff>
+          <xdr:colOff>815340</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>94825</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17566,15 +17440,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>662939</xdr:colOff>
+          <xdr:colOff>662940</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>61807</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>66886</xdr:colOff>
+          <xdr:colOff>68580</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>74506</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17633,15 +17507,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>661246</xdr:colOff>
+          <xdr:colOff>662940</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>73660</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>82126</xdr:colOff>
+          <xdr:colOff>83820</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>86359</xdr:rowOff>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17713,7 +17587,7 @@
         <xdr:cNvPr id="29" name="Group 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4475A5F5-DEAF-1096-956F-2C7657E202F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17806,6 +17680,7 @@
                 <a:ea typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>Not Started 
 Tasks</a:t>
             </a:fld>
@@ -17896,15 +17771,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>82126</xdr:colOff>
+          <xdr:colOff>83820</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>185419</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>348826</xdr:colOff>
+          <xdr:colOff>350520</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>177799</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17946,15 +17821,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>9737</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>2117</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>207857</xdr:colOff>
+          <xdr:colOff>205740</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>22648</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18009,7 +17884,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7DCCC0-5A22-4CC0-ADFC-07054CF06EB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18040,9 +17915,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>192193</xdr:colOff>
+          <xdr:colOff>190500</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
+          <xdr:rowOff>99060</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18104,7 +17979,7 @@
         <xdr:cNvPr id="44" name="Group 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2625A1BA-5BEE-A821-5872-C5DB5B639D25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18165,7 +18040,7 @@
           <xdr:cNvPr id="42" name="Group 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA12B40A-BC3F-B613-2CD1-D59D62A8A54D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18241,7 +18116,7 @@
                       <a14:compatExt spid="_x0000_s10269"/>
                     </a:ext>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017280000}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D280000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -18288,7 +18163,7 @@
             <xdr:cNvPr id="41" name="Group 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86126AED-C517-502F-E707-682B51064198}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000029000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18307,7 +18182,7 @@
               <xdr:cNvPr id="4" name="Rectangle 3">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3255D0FB-D807-AA36-A5AD-DFA58BA44E7E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18363,7 +18238,7 @@
               <xdr:cNvPr id="7" name="Rectangle 6">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73D753B-F21A-40F4-88F9-3B281593DC59}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18414,6 +18289,7 @@
                     <a:ea typeface="Calibri"/>
                     <a:cs typeface="Calibri"/>
                   </a:rPr>
+                  <a:pPr algn="ctr"/>
                   <a:t>Low Tasks</a:t>
                 </a:fld>
                 <a:endParaRPr lang="en-US" sz="2000" b="1">
@@ -18430,7 +18306,7 @@
               <xdr:cNvPr id="9" name="TextBox 8">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3EAA2E-269A-AF2B-381C-6600082C6B39}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18477,6 +18353,7 @@
                     <a:ea typeface="Calibri"/>
                     <a:cs typeface="Calibri"/>
                   </a:rPr>
+                  <a:pPr algn="ctr"/>
                   <a:t>11</a:t>
                 </a:fld>
                 <a:endParaRPr lang="en-US" sz="4000" b="1">
@@ -18493,7 +18370,7 @@
               <xdr:cNvPr id="39" name="Chart 38">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01AECB8D-9D10-43D4-A5E1-2E9D7FFCA4DA}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18522,7 +18399,7 @@
                       <a14:compatExt spid="_x0000_s10285"/>
                     </a:ext>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017280000}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D280000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -18571,7 +18448,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -18642,7 +18519,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -18713,7 +18590,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -18822,7 +18699,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -18902,7 +18779,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19240,11 +19117,82 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.05376</cdr:x>
+      <cdr:y>0.75844</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.91039</cdr:x>
+      <cdr:y>0.8997</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7AF2B9-E596-C108-D3A6-4EEA940667DE}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="114300" y="1589303"/>
+          <a:ext cx="1821179" cy="296011"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="463E2A"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1">
+              <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SCOPE</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D29EECA7-1C58-4417-A93D-648F8682C93A}" name="Table4" displayName="Table4" ref="AC2:AC4" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D29EECA7-1C58-4417-A93D-648F8682C93A}" name="Table4" displayName="Table4" ref="AC2:AC4" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="AC2:AC4" xr:uid="{3426F9D3-637D-4A29-86F7-612F8AB34F6F}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C15E0E20-661C-45F7-A50A-14ECE250AC64}" name="Holidays" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{C15E0E20-661C-45F7-A50A-14ECE250AC64}" name="Holidays" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -19255,7 +19203,7 @@
   <autoFilter ref="C5:D10" xr:uid="{2C56201F-093E-4B9F-9213-5CFEBFAEF1C6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D014656B-F56D-4ACF-B082-CEFB5641EFEA}" name="Schedual Status"/>
-    <tableColumn id="2" xr3:uid="{2B5344C0-075A-4F74-9FFF-AA91E0FC2CC4}" name="COUNT" dataDxfId="27">
+    <tableColumn id="2" xr3:uid="{2B5344C0-075A-4F74-9FFF-AA91E0FC2CC4}" name="COUNT" dataDxfId="20">
       <calculatedColumnFormula>COUNTIFS(Tasks!P3:P23,Table2[[#This Row],[Schedual Status]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19267,8 +19215,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BE3362D6-2D75-4347-97D3-F0A8DBDFEA50}" name="Table1" displayName="Table1" ref="AC3:AD6" totalsRowShown="0">
   <autoFilter ref="AC3:AD6" xr:uid="{BE3362D6-2D75-4347-97D3-F0A8DBDFEA50}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9FF2B39F-B9E5-48B1-8BAE-B3EFE71C3FCC}" name="Priority" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{DBA5467A-1B90-453B-8CDA-0D1A9397106E}" name="count" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{9FF2B39F-B9E5-48B1-8BAE-B3EFE71C3FCC}" name="Priority" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{DBA5467A-1B90-453B-8CDA-0D1A9397106E}" name="count" dataDxfId="18">
       <calculatedColumnFormula>COUNTIF(Issues!$F$4:$F$19,Table1[[#This Row],[Priority]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19277,28 +19225,28 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E3D3063A-EE21-49F1-AACA-9B9648D4323B}" name="Table6" displayName="Table6" ref="A30:G35" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E3D3063A-EE21-49F1-AACA-9B9648D4323B}" name="Table6" displayName="Table6" ref="A30:G35" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A30:G35" xr:uid="{E3D3063A-EE21-49F1-AACA-9B9648D4323B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{01647AB2-39BD-407E-818A-CE0933356F19}" name="srl" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{01647AB2-39BD-407E-818A-CE0933356F19}" name="srl" dataDxfId="15">
       <calculatedColumnFormula>A30+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{3519CC0C-4EC0-412F-B0AB-37A8CCA581E9}" name="Task Description" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{3519CC0C-4EC0-412F-B0AB-37A8CCA581E9}" name="Task Description" dataDxfId="14">
       <calculatedColumnFormula>IFERROR(VLOOKUP(DashBoard!$A31,list!$A$14:$W$25,MATCH(B$30,Tasks!$A$2:$W$2,0),0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AF51B4A7-69E6-4E95-B6D7-C547AFBFD2AE}" name="Sec" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{AF51B4A7-69E6-4E95-B6D7-C547AFBFD2AE}" name="Sec" dataDxfId="13">
       <calculatedColumnFormula>IFERROR(VLOOKUP(DashBoard!$A31,list!$A$14:$W$25,MATCH(C$30,Tasks!$A$2:$W$2,0),0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{09032EAC-6723-4C4D-BE9A-268DE1804557}" name="Dept" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{09032EAC-6723-4C4D-BE9A-268DE1804557}" name="Dept" dataDxfId="12">
       <calculatedColumnFormula>IFERROR(VLOOKUP(DashBoard!$A31,list!$A$14:$W$25,MATCH(D$30,Tasks!$A$2:$W$2,0),0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3A5C6641-9A90-4A19-A2FD-28BF11D20AA7}" name="A STRT" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{3A5C6641-9A90-4A19-A2FD-28BF11D20AA7}" name="A STRT" dataDxfId="11">
       <calculatedColumnFormula>IFERROR(VLOOKUP(DashBoard!$A31,list!$A$14:$W$25,MATCH(E$30,Tasks!$A$2:$W$2,0),0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{10EAC473-56F4-4C48-8B73-6E811D0EDEC6}" name="A END" dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{10EAC473-56F4-4C48-8B73-6E811D0EDEC6}" name="A END" dataDxfId="10">
       <calculatedColumnFormula>IFERROR(VLOOKUP(DashBoard!$A31,list!$A$14:$W$25,MATCH(F$30,Tasks!$A$2:$W$2,0),0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5EA957AC-BE35-4CB2-A193-DCF46D679126}" name="%" dataDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{5EA957AC-BE35-4CB2-A193-DCF46D679126}" name="%" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR(VLOOKUP(DashBoard!$A31,list!$A$14:$W$25,MATCH(G$30,Tasks!$A$2:$W$2,0),0),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19307,20 +19255,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D802FD5B-0A89-45FD-8355-35B8F327625C}" name="Table10" displayName="Table10" ref="I30:M35" totalsRowShown="0" headerRowDxfId="1" dataDxfId="15" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D802FD5B-0A89-45FD-8355-35B8F327625C}" name="Table10" displayName="Table10" ref="I30:M35" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="I30:M35" xr:uid="{D802FD5B-0A89-45FD-8355-35B8F327625C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FDA4A00D-57BB-459C-B488-264ED77DC1C1}" name="srl" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{16C882C8-DE3C-4328-8436-FBB3B4FD38FD}" name="Issue" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{FDA4A00D-57BB-459C-B488-264ED77DC1C1}" name="srl" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{16C882C8-DE3C-4328-8436-FBB3B4FD38FD}" name="Issue" dataDxfId="4">
       <calculatedColumnFormula>IFERROR(VLOOKUP($I31,list!$Y$13:$AJ$27,MATCH(J$30,list!$Y$13:$AJ$13,0),0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4BEA8E34-55B6-4909-B448-B33E72158CAE}" name="Score" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{4BEA8E34-55B6-4909-B448-B33E72158CAE}" name="Score" dataDxfId="3">
       <calculatedColumnFormula>IFERROR(VLOOKUP($I31,list!$Y$13:$AJ$27,MATCH(K$30,list!$Y$13:$AJ$13,0),0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77778474-D1C5-448C-82A7-CA7AD40A7CDE}" name="Owner" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{77778474-D1C5-448C-82A7-CA7AD40A7CDE}" name="Owner" dataDxfId="2">
       <calculatedColumnFormula>IFERROR(VLOOKUP($I31,list!$Y$13:$AJ$27,MATCH(L$30,list!$Y$13:$AJ$13,0),0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CFD59385-E1A1-4E86-9980-1BE4E3F560DC}" name="Comments" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{CFD59385-E1A1-4E86-9980-1BE4E3F560DC}" name="Comments" dataDxfId="1">
       <calculatedColumnFormula>IFERROR(VLOOKUP($I31,list!$Y$13:$AJ$27,MATCH(M$30,list!$Y$13:$AJ$13,0),0),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19624,21 +19572,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283C7409-60B7-4B8E-94ED-8412925C08BC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4BDFE5-50C4-48BE-944D-7983963CD667}">
   <dimension ref="B1:AF24"/>
   <sheetViews>
@@ -19862,7 +19795,7 @@
         <v>20</v>
       </c>
       <c r="W3" s="44">
-        <f>$N$1</f>
+        <f t="shared" ref="W3:W23" si="2">$N$1</f>
         <v>43931</v>
       </c>
       <c r="X3">
@@ -19951,7 +19884,7 @@
         <v>19</v>
       </c>
       <c r="W4" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X4">
@@ -20040,7 +19973,7 @@
         <v>18</v>
       </c>
       <c r="W5" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X5">
@@ -20126,7 +20059,7 @@
         <v>17</v>
       </c>
       <c r="W6" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X6">
@@ -20212,7 +20145,7 @@
         <v>16</v>
       </c>
       <c r="W7" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X7">
@@ -20298,7 +20231,7 @@
         <v>15</v>
       </c>
       <c r="W8" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X8">
@@ -20384,7 +20317,7 @@
         <v>14</v>
       </c>
       <c r="W9" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X9">
@@ -20464,7 +20397,7 @@
         <v>13</v>
       </c>
       <c r="W10" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X10">
@@ -20540,7 +20473,7 @@
         <v>12</v>
       </c>
       <c r="W11" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X11">
@@ -20616,7 +20549,7 @@
         <v>11</v>
       </c>
       <c r="W12" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X12">
@@ -20692,7 +20625,7 @@
         <v>10</v>
       </c>
       <c r="W13" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X13">
@@ -20768,7 +20701,7 @@
         <v>9</v>
       </c>
       <c r="W14" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X14">
@@ -20844,7 +20777,7 @@
         <v>8</v>
       </c>
       <c r="W15" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X15">
@@ -20920,7 +20853,7 @@
         <v>7</v>
       </c>
       <c r="W16" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X16">
@@ -20996,7 +20929,7 @@
         <v>6</v>
       </c>
       <c r="W17" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X17">
@@ -21072,7 +21005,7 @@
         <v>5</v>
       </c>
       <c r="W18" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X18">
@@ -21148,7 +21081,7 @@
         <v>4</v>
       </c>
       <c r="W19" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X19">
@@ -21224,7 +21157,7 @@
         <v>3</v>
       </c>
       <c r="W20" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X20">
@@ -21300,7 +21233,7 @@
         <v>2</v>
       </c>
       <c r="W21" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X21">
@@ -21376,7 +21309,7 @@
         <v>1</v>
       </c>
       <c r="W22" s="44">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X22">
@@ -21455,7 +21388,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="54">
-        <f>$N$1</f>
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
       <c r="X23">
@@ -21509,7 +21442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FE2959-3A9C-4D05-9C2C-C33E06202CAB}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
@@ -21607,7 +21540,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="str">
+      <c r="A5" s="96" t="str">
         <f>list!H4</f>
         <v>Total</v>
       </c>
@@ -21648,7 +21581,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
+      <c r="A6" s="97"/>
       <c r="B6" s="58" t="s">
         <v>64</v>
       </c>
@@ -22169,7 +22102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDD5DB4-61E2-4046-B841-B02F39E491E5}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
@@ -25260,11 +25193,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F222A31-51F2-41A3-8155-BAC2E5B6C86F}">
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AB39" sqref="AB39"/>
     </sheetView>
   </sheetViews>
@@ -26093,41 +26026,41 @@
       <c r="Z29" s="86"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="96" t="s">
+      <c r="D30" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="96" t="s">
+      <c r="E30" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="96" t="s">
+      <c r="F30" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="97" t="s">
+      <c r="G30" s="95" t="s">
         <v>65</v>
       </c>
       <c r="H30" s="86"/>
-      <c r="I30" s="94" t="s">
+      <c r="I30" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="J30" s="96" t="s">
+      <c r="J30" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="K30" s="96" t="s">
+      <c r="K30" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="L30" s="96" t="s">
+      <c r="L30" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="97" t="s">
+      <c r="M30" s="95" t="s">
         <v>6</v>
       </c>
       <c r="N30" s="86"/>
@@ -26145,50 +26078,50 @@
       <c r="Z30" s="86"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="89">
+      <c r="A31" s="87">
         <v>1</v>
       </c>
-      <c r="B31" s="91" t="str">
+      <c r="B31" s="89" t="str">
         <f>IFERROR(VLOOKUP(DashBoard!$A31,list!$A$14:$W$25,MATCH(B$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>Activity 14</v>
       </c>
-      <c r="C31" s="91" t="str">
+      <c r="C31" s="89" t="str">
         <f>IFERROR(VLOOKUP(DashBoard!$A31,list!$A$14:$W$25,MATCH(C$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>BTS</v>
       </c>
-      <c r="D31" s="91" t="str">
+      <c r="D31" s="89" t="str">
         <f>IFERROR(VLOOKUP(DashBoard!$A31,list!$A$14:$W$25,MATCH(D$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>Civil</v>
       </c>
-      <c r="E31" s="92">
+      <c r="E31" s="90">
         <f>IFERROR(VLOOKUP(DashBoard!$A31,list!$A$14:$W$25,MATCH(E$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>43935</v>
       </c>
-      <c r="F31" s="92">
+      <c r="F31" s="90">
         <f>IFERROR(VLOOKUP(DashBoard!$A31,list!$A$14:$W$25,MATCH(F$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>43971</v>
       </c>
-      <c r="G31" s="93">
+      <c r="G31" s="91">
         <f>IFERROR(VLOOKUP(DashBoard!$A31,list!$A$14:$W$25,MATCH(G$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>0.1</v>
       </c>
       <c r="H31" s="86"/>
-      <c r="I31" s="89">
+      <c r="I31" s="87">
         <v>1</v>
       </c>
-      <c r="J31" s="91" t="str">
+      <c r="J31" s="89" t="str">
         <f>IFERROR(VLOOKUP($I31,list!$Y$13:$AJ$27,MATCH(J$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>Issue#1</v>
       </c>
-      <c r="K31" s="91">
+      <c r="K31" s="89">
         <f>IFERROR(VLOOKUP($I31,list!$Y$13:$AJ$27,MATCH(K$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>622.38</v>
       </c>
-      <c r="L31" s="91" t="str">
+      <c r="L31" s="89" t="str">
         <f>IFERROR(VLOOKUP($I31,list!$Y$13:$AJ$27,MATCH(L$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>Akram</v>
       </c>
-      <c r="M31" s="91" t="str">
+      <c r="M31" s="89" t="str">
         <f>IFERROR(VLOOKUP($I31,list!$Y$13:$AJ$27,MATCH(M$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>Waiting Vendor feedback</v>
       </c>
@@ -26207,52 +26140,52 @@
       <c r="Z31" s="86"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="89">
+      <c r="A32" s="87">
         <f>A31+1</f>
         <v>2</v>
       </c>
-      <c r="B32" s="91" t="str">
+      <c r="B32" s="89" t="str">
         <f>IFERROR(VLOOKUP(DashBoard!$A32,list!$A$14:$W$25,MATCH(B$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>Activity 15</v>
       </c>
-      <c r="C32" s="91" t="str">
+      <c r="C32" s="89" t="str">
         <f>IFERROR(VLOOKUP(DashBoard!$A32,list!$A$14:$W$25,MATCH(C$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>CVL</v>
       </c>
-      <c r="D32" s="91" t="str">
+      <c r="D32" s="89" t="str">
         <f>IFERROR(VLOOKUP(DashBoard!$A32,list!$A$14:$W$25,MATCH(D$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>Civil</v>
       </c>
-      <c r="E32" s="92">
+      <c r="E32" s="90">
         <f>IFERROR(VLOOKUP(DashBoard!$A32,list!$A$14:$W$25,MATCH(E$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>43940</v>
       </c>
-      <c r="F32" s="92">
+      <c r="F32" s="90">
         <f>IFERROR(VLOOKUP(DashBoard!$A32,list!$A$14:$W$25,MATCH(F$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>43972</v>
       </c>
-      <c r="G32" s="93">
+      <c r="G32" s="91">
         <f>IFERROR(VLOOKUP(DashBoard!$A32,list!$A$14:$W$25,MATCH(G$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>0</v>
       </c>
       <c r="H32" s="86"/>
-      <c r="I32" s="89">
+      <c r="I32" s="87">
         <f>I31+1</f>
         <v>2</v>
       </c>
-      <c r="J32" s="91" t="str">
+      <c r="J32" s="89" t="str">
         <f>IFERROR(VLOOKUP($I32,list!$Y$13:$AJ$27,MATCH(J$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>Issue#3</v>
       </c>
-      <c r="K32" s="91">
+      <c r="K32" s="89">
         <f>IFERROR(VLOOKUP($I32,list!$Y$13:$AJ$27,MATCH(K$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>701.91000000000008</v>
       </c>
-      <c r="L32" s="91" t="str">
+      <c r="L32" s="89" t="str">
         <f>IFERROR(VLOOKUP($I32,list!$Y$13:$AJ$27,MATCH(L$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>Ashraf</v>
       </c>
-      <c r="M32" s="91" t="str">
+      <c r="M32" s="89" t="str">
         <f>IFERROR(VLOOKUP($I32,list!$Y$13:$AJ$27,MATCH(M$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>Solved wih the owner</v>
       </c>
@@ -26271,52 +26204,52 @@
       <c r="Z32" s="86"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="89">
+      <c r="A33" s="87">
         <f t="shared" ref="A33:A35" si="0">A32+1</f>
         <v>3</v>
       </c>
-      <c r="B33" s="91" t="str">
+      <c r="B33" s="89" t="str">
         <f>IFERROR(VLOOKUP(DashBoard!$A33,list!$A$14:$W$25,MATCH(B$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>Activity 16</v>
       </c>
-      <c r="C33" s="91" t="str">
+      <c r="C33" s="89" t="str">
         <f>IFERROR(VLOOKUP(DashBoard!$A33,list!$A$14:$W$25,MATCH(C$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>BTS</v>
       </c>
-      <c r="D33" s="91" t="str">
+      <c r="D33" s="89" t="str">
         <f>IFERROR(VLOOKUP(DashBoard!$A33,list!$A$14:$W$25,MATCH(D$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>Civil</v>
       </c>
-      <c r="E33" s="92">
+      <c r="E33" s="90">
         <f>IFERROR(VLOOKUP(DashBoard!$A33,list!$A$14:$W$25,MATCH(E$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>43955</v>
       </c>
-      <c r="F33" s="92">
+      <c r="F33" s="90">
         <f>IFERROR(VLOOKUP(DashBoard!$A33,list!$A$14:$W$25,MATCH(F$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>43989</v>
       </c>
-      <c r="G33" s="93">
+      <c r="G33" s="91">
         <f>IFERROR(VLOOKUP(DashBoard!$A33,list!$A$14:$W$25,MATCH(G$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>0</v>
       </c>
       <c r="H33" s="86"/>
-      <c r="I33" s="89">
+      <c r="I33" s="87">
         <f t="shared" ref="I33:I35" si="1">I32+1</f>
         <v>3</v>
       </c>
-      <c r="J33" s="91" t="str">
+      <c r="J33" s="89" t="str">
         <f>IFERROR(VLOOKUP($I33,list!$Y$13:$AJ$27,MATCH(J$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>Issue#4</v>
       </c>
-      <c r="K33" s="91">
+      <c r="K33" s="89">
         <f>IFERROR(VLOOKUP($I33,list!$Y$13:$AJ$27,MATCH(K$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>1600.0700000000002</v>
       </c>
-      <c r="L33" s="91" t="str">
+      <c r="L33" s="89" t="str">
         <f>IFERROR(VLOOKUP($I33,list!$Y$13:$AJ$27,MATCH(L$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>Ashraf</v>
       </c>
-      <c r="M33" s="91" t="str">
+      <c r="M33" s="89" t="str">
         <f>IFERROR(VLOOKUP($I33,list!$Y$13:$AJ$27,MATCH(M$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>Solved wih the owner</v>
       </c>
@@ -26335,52 +26268,52 @@
       <c r="Z33" s="86"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="89">
+      <c r="A34" s="87">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B34" s="91" t="str">
+      <c r="B34" s="89" t="str">
         <f>IFERROR(VLOOKUP(DashBoard!$A34,list!$A$14:$W$25,MATCH(B$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>Activity 17</v>
       </c>
-      <c r="C34" s="91" t="str">
+      <c r="C34" s="89" t="str">
         <f>IFERROR(VLOOKUP(DashBoard!$A34,list!$A$14:$W$25,MATCH(C$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>ARC</v>
       </c>
-      <c r="D34" s="91" t="str">
+      <c r="D34" s="89" t="str">
         <f>IFERROR(VLOOKUP(DashBoard!$A34,list!$A$14:$W$25,MATCH(D$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>Acrhitict</v>
       </c>
-      <c r="E34" s="92">
+      <c r="E34" s="90">
         <f>IFERROR(VLOOKUP(DashBoard!$A34,list!$A$14:$W$25,MATCH(E$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>43979</v>
       </c>
-      <c r="F34" s="92">
+      <c r="F34" s="90">
         <f>IFERROR(VLOOKUP(DashBoard!$A34,list!$A$14:$W$25,MATCH(F$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>44006</v>
       </c>
-      <c r="G34" s="93">
+      <c r="G34" s="91">
         <f>IFERROR(VLOOKUP(DashBoard!$A34,list!$A$14:$W$25,MATCH(G$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>0</v>
       </c>
       <c r="H34" s="86"/>
-      <c r="I34" s="89">
+      <c r="I34" s="87">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J34" s="91" t="str">
+      <c r="J34" s="89" t="str">
         <f>IFERROR(VLOOKUP($I34,list!$Y$13:$AJ$27,MATCH(J$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>Issue#6</v>
       </c>
-      <c r="K34" s="91">
+      <c r="K34" s="89">
         <f>IFERROR(VLOOKUP($I34,list!$Y$13:$AJ$27,MATCH(K$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>399.24</v>
       </c>
-      <c r="L34" s="91" t="str">
+      <c r="L34" s="89" t="str">
         <f>IFERROR(VLOOKUP($I34,list!$Y$13:$AJ$27,MATCH(L$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>Ashraf</v>
       </c>
-      <c r="M34" s="91" t="str">
+      <c r="M34" s="89" t="str">
         <f>IFERROR(VLOOKUP($I34,list!$Y$13:$AJ$27,MATCH(M$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>Most likely solved with no cost</v>
       </c>
@@ -26399,52 +26332,52 @@
       <c r="Z34" s="86"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="90">
+      <c r="A35" s="88">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B35" s="91" t="str">
+      <c r="B35" s="89" t="str">
         <f>IFERROR(VLOOKUP(DashBoard!$A35,list!$A$14:$W$25,MATCH(B$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>Activity 18</v>
       </c>
-      <c r="C35" s="91" t="str">
+      <c r="C35" s="89" t="str">
         <f>IFERROR(VLOOKUP(DashBoard!$A35,list!$A$14:$W$25,MATCH(C$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>BTS</v>
       </c>
-      <c r="D35" s="91" t="str">
+      <c r="D35" s="89" t="str">
         <f>IFERROR(VLOOKUP(DashBoard!$A35,list!$A$14:$W$25,MATCH(D$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>Civil</v>
       </c>
-      <c r="E35" s="92">
+      <c r="E35" s="90">
         <f>IFERROR(VLOOKUP(DashBoard!$A35,list!$A$14:$W$25,MATCH(E$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>43994</v>
       </c>
-      <c r="F35" s="92">
+      <c r="F35" s="90">
         <f>IFERROR(VLOOKUP(DashBoard!$A35,list!$A$14:$W$25,MATCH(F$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>44012</v>
       </c>
-      <c r="G35" s="93">
+      <c r="G35" s="91">
         <f>IFERROR(VLOOKUP(DashBoard!$A35,list!$A$14:$W$25,MATCH(G$30,Tasks!$A$2:$W$2,0),0),"")</f>
         <v>0</v>
       </c>
       <c r="H35" s="86"/>
-      <c r="I35" s="90">
+      <c r="I35" s="88">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J35" s="91" t="str">
+      <c r="J35" s="89" t="str">
         <f>IFERROR(VLOOKUP($I35,list!$Y$13:$AJ$27,MATCH(J$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>Issue#7</v>
       </c>
-      <c r="K35" s="91">
+      <c r="K35" s="89">
         <f>IFERROR(VLOOKUP($I35,list!$Y$13:$AJ$27,MATCH(K$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>48.24</v>
       </c>
-      <c r="L35" s="91" t="str">
+      <c r="L35" s="89" t="str">
         <f>IFERROR(VLOOKUP($I35,list!$Y$13:$AJ$27,MATCH(L$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>Ahmad</v>
       </c>
-      <c r="M35" s="91" t="str">
+      <c r="M35" s="89" t="str">
         <f>IFERROR(VLOOKUP($I35,list!$Y$13:$AJ$27,MATCH(M$30,list!$Y$13:$AJ$13,0),0),"")</f>
         <v>Solved wih the owner</v>
       </c>
@@ -26788,7 +26721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C95053B-4436-4FE9-8EE6-1591B915000C}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -27529,11 +27462,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5C50C6-BD02-443B-8DC6-0140F56DF7EA}">
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
